--- a/Results/CEC (DE, PSO, UMDA, DEDA).xlsx
+++ b/Results/CEC (DE, PSO, UMDA, DEDA).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1020" windowWidth="25340" windowHeight="16380" activeTab="2"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="22020" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DIM10" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
   <si>
     <t>DE</t>
   </si>
@@ -45,12 +45,24 @@
   <si>
     <t>DEDA</t>
   </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Separable</t>
+  </si>
+  <si>
+    <t>Uni</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -71,8 +83,13 @@
       <color theme="2"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +105,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,20 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -141,22 +164,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -429,327 +450,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="10.83203125" customWidth="1"/>
+    <col min="3" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
         <v>3.8834188562666685E-17</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>3.4217028464934385E-17</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>1.6508705311571745E-16</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>3.6387590757100656E-16</v>
       </c>
-      <c r="E3" s="9">
+      <c r="G3" s="12">
         <v>1.6657586874646885E-27</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>4.0720389799117816E-28</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>1.8303031624599523E-8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="D4" s="2">
         <v>1.2426322393463657E-8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>2.0691094924057579E-6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>3.3554706993100501E-6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>251.46268258236717</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>142.11855015328905</v>
       </c>
-      <c r="G4" s="9">
+      <c r="I4" s="7">
         <v>4.2341846134102732E-27</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>3.1012880139575716E-27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.51900395388310394</v>
       </c>
-      <c r="B5" s="2">
+      <c r="D5" s="2">
         <v>0.22915792279052571</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>488255.0936948391</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>721055.51222208678</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>108894.77286315785</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>83237.795977993315</v>
       </c>
-      <c r="G5" s="9">
+      <c r="I5" s="7">
         <v>4.9577524606487094E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>3.0146849419233693E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
         <v>3.3615988120727866E-7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="D6" s="2">
         <v>2.5863819318641136E-7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>6.3069679432401076E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>9.1041888025768762E-5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>320.65482491626875</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>215.65137771540458</v>
       </c>
-      <c r="G6" s="9">
+      <c r="I6" s="7">
         <v>1.7317670173197565E-26</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>2.1578933805484457E-26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
         <v>4.2443086082736652E-13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="D7" s="2">
         <v>7.8249844073448234E-13</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>494.48110564010045</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>449.28466366511486</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>167.13727882094699</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>137.28798065225561</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>6.5705300981822194</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>12.589371573720994</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7">
         <v>5.433489581175574E-5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="D8" s="2">
         <v>1.244676268558567E-4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>211.35121805777845</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>714.72838695339635</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>13437.026386092031</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>43020.513151783009</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>6.7147808413949255</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>0.58298390910164044</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1">
         <v>0.48718106996341676</v>
       </c>
-      <c r="B9" s="2">
+      <c r="D9" s="2">
         <v>7.608969562381096E-2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>0.27352902227447129</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>0.1789499506285003</v>
       </c>
-      <c r="E9" s="9">
+      <c r="G9" s="7">
         <v>0.18697134868815102</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>0.22274043938421542</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>0.34071140780009918</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>0.12413788649946801</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1">
         <v>20.351075529478916</v>
       </c>
-      <c r="B10" s="2">
+      <c r="D10" s="2">
         <v>7.2014660706746822E-2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="E10" s="7">
         <v>20.296233628714607</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>8.8203420055738502E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>20.383912540208271</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>8.1528262472833887E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>20.364843663527271</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>6.8793501879812036E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1">
         <v>25.003894580343765</v>
       </c>
-      <c r="B11" s="2">
+      <c r="D11" s="2">
         <v>4.4423779886289667</v>
       </c>
-      <c r="C11" s="9">
+      <c r="E11" s="7">
         <v>1.7616898082644488</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>1.4927549820151784</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>23.483760052720559</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>3.0803377931954721</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>18.017304876422397</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>3.5234412060056588</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1">
         <v>32.558818880676036</v>
       </c>
-      <c r="B12" s="2">
+      <c r="D12" s="2">
         <v>4.2499624859481164</v>
       </c>
-      <c r="C12" s="9">
+      <c r="E12" s="7">
         <v>17.345422119648003</v>
       </c>
-      <c r="D12" s="2">
+      <c r="F12" s="2">
         <v>7.4989359852691591</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>21.086526187979995</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="2">
         <v>3.4265221440990863</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>20.480674107967648</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <v>3.6180229325717237</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -757,324 +818,364 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="273" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="143" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.0258146793008103</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>0.15274579004892022</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>4.5381315458251507E-10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7.6589939506790936E-10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.8123337768201839E-25</v>
       </c>
       <c r="F3" s="2">
         <v>7.6589939506790936E-10</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="1">
+        <v>1.8123337768201839E-25</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.6589939506790936E-10</v>
+      </c>
+      <c r="I3" s="7">
         <v>8.5751809933874718E-28</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>1.3954274931570513E-28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>3070.290235126598</v>
       </c>
-      <c r="B4" s="2">
+      <c r="D4" s="2">
         <v>690.60189249735856</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>1418.6820190281471</v>
-      </c>
-      <c r="D4" s="2">
-        <v>701.16640023562138</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1707.2647614467699</v>
       </c>
       <c r="F4" s="2">
         <v>701.16640023562138</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="1">
+        <v>1707.2647614467699</v>
+      </c>
+      <c r="H4" s="2">
+        <v>701.16640023562138</v>
+      </c>
+      <c r="I4" s="7">
         <v>483.97899590862687</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>179.71151529928881</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
         <v>32849521.367829688</v>
       </c>
-      <c r="B5" s="2">
+      <c r="D5" s="2">
         <v>5836672.9713103669</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>19235393.056342732</v>
-      </c>
-      <c r="D5" s="2">
-        <v>11160673.31551028</v>
-      </c>
-      <c r="E5" s="9">
-        <v>4926175.1754789958</v>
       </c>
       <c r="F5" s="2">
         <v>11160673.31551028</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
+        <v>4926175.1754789958</v>
+      </c>
+      <c r="H5" s="2">
+        <v>11160673.31551028</v>
+      </c>
+      <c r="I5" s="1">
         <v>18783249.227862503</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>4863572.4564842368</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
         <v>6063.056715492794</v>
       </c>
-      <c r="B6" s="2">
+      <c r="D6" s="2">
         <v>1230.245416250463</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>15048.589936720635</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6869.4863938210392</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3626.2174575292333</v>
       </c>
       <c r="F6" s="2">
         <v>6869.4863938210392</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="1">
+        <v>3626.2174575292333</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6869.4863938210392</v>
+      </c>
+      <c r="I6" s="7">
         <v>673.9909114728755</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>195.824150252523</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
         <v>1376.3120233002255</v>
       </c>
-      <c r="B7" s="2">
+      <c r="D7" s="2">
         <v>354.37951876042723</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>6920.9410061040689</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2554.8786586740457</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2696.6265940852691</v>
       </c>
       <c r="F7" s="2">
         <v>2554.8786586740457</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="1">
+        <v>2696.6265940852691</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2554.8786586740457</v>
+      </c>
+      <c r="I7" s="7">
         <v>131.33963931205886</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>92.137511963617243</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1">
         <v>2991.4507177541113</v>
       </c>
-      <c r="B8" s="2">
+      <c r="D8" s="2">
         <v>1238.4388467659828</v>
       </c>
-      <c r="C8" s="9">
+      <c r="E8" s="7">
         <v>530.08659803344813</v>
-      </c>
-      <c r="D8" s="2">
-        <v>859.80358470214651</v>
-      </c>
-      <c r="E8" s="1">
-        <v>85716.244614922107</v>
       </c>
       <c r="F8" s="2">
         <v>859.80358470214651</v>
       </c>
       <c r="G8" s="1">
+        <v>85716.244614922107</v>
+      </c>
+      <c r="H8" s="2">
+        <v>859.80358470214651</v>
+      </c>
+      <c r="I8" s="1">
         <v>7315.816517430334</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>22085.383024158211</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1">
         <v>1.2182261499068057</v>
       </c>
-      <c r="B9" s="2">
+      <c r="D9" s="2">
         <v>5.3576007144802242E-2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="E9" s="7">
         <v>5.769027771298204E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5.1785100379141621E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5.8603574789587407</v>
       </c>
       <c r="F9" s="2">
         <v>5.1785100379141621E-2</v>
       </c>
       <c r="G9" s="1">
+        <v>5.8603574789587407</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5.1785100379141621E-2</v>
+      </c>
+      <c r="I9" s="1">
         <v>0.25377216029840083</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>0.42545290082574511</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1">
         <v>20.940994426670848</v>
       </c>
-      <c r="B10" s="2">
+      <c r="D10" s="2">
         <v>4.2435266817203388E-2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="E10" s="7">
         <v>20.897121739484575</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5.7397698718216726E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20.968213921624283</v>
       </c>
       <c r="F10" s="2">
         <v>5.7397698718216726E-2</v>
       </c>
       <c r="G10" s="1">
+        <v>20.968213921624283</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.7397698718216726E-2</v>
+      </c>
+      <c r="I10" s="1">
         <v>20.950357812473712</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>5.4135152142099283E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1">
         <v>190.79608537216214</v>
       </c>
-      <c r="B11" s="2">
+      <c r="D11" s="2">
         <v>9.577515997331032</v>
       </c>
-      <c r="C11" s="9">
+      <c r="E11" s="7">
         <v>25.310549071421892</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5.9654765691365554</v>
-      </c>
-      <c r="E11" s="1">
-        <v>153.12167864163027</v>
       </c>
       <c r="F11" s="2">
         <v>5.9654765691365554</v>
       </c>
       <c r="G11" s="1">
+        <v>153.12167864163027</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.9654765691365554</v>
+      </c>
+      <c r="I11" s="1">
         <v>160.16588581178394</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>8.2727353394052425</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1">
         <v>218.75828496347361</v>
       </c>
-      <c r="B12" s="2">
+      <c r="D12" s="2">
         <v>10.940421062554252</v>
       </c>
-      <c r="C12" s="9">
+      <c r="E12" s="7">
         <v>114.1547456227083</v>
-      </c>
-      <c r="D12" s="2">
-        <v>37.846629265338322</v>
-      </c>
-      <c r="E12" s="1">
-        <v>159.43684847171465</v>
       </c>
       <c r="F12" s="2">
         <v>37.846629265338322</v>
       </c>
       <c r="G12" s="1">
+        <v>159.43684847171465</v>
+      </c>
+      <c r="H12" s="2">
+        <v>37.846629265338322</v>
+      </c>
+      <c r="I12" s="1">
         <v>160.46166493252107</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <v>8.533195337372451</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1082,324 +1183,364 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="275" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
         <v>563.74110798429126</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>85.420585591608372</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>1.1962942761281139E-4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>1.4933281914365204E-4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>1.0397219484975105E-24</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>9.5283436172964054E-26</v>
       </c>
-      <c r="G3" s="9">
+      <c r="I3" s="7">
         <v>2.1423177776097979E-26</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>4.4232127253114059E-27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>50014.820552611607</v>
       </c>
-      <c r="B4" s="2">
+      <c r="D4" s="2">
         <v>4875.2009988441005</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>36854.85889161568</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>10186.825502514148</v>
       </c>
-      <c r="E4" s="9">
+      <c r="G4" s="7">
         <v>3551.7333469442819</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>645.12225510522421</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>39588.977129470724</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>5004.739936708238</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
         <v>252039690.92614374</v>
       </c>
-      <c r="B5" s="2">
+      <c r="D5" s="2">
         <v>33341016.217143465</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>86786165.260465726</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>46396000.938424543</v>
       </c>
-      <c r="E5" s="9">
+      <c r="G5" s="7">
         <v>13098769.171034651</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>2937815.6472319276</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>195830187.87236121</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>31645830.512338903</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
         <v>70243.299978964336</v>
       </c>
-      <c r="B6" s="2">
+      <c r="D6" s="2">
         <v>9894.9149754947393</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>112087.77062311498</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>30927.90675763963</v>
       </c>
-      <c r="E6" s="9">
+      <c r="G6" s="7">
         <v>8172.1504492687982</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>1706.7775390462166</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>50790.053651427042</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>7703.8000381784141</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
         <v>13282.582819836263</v>
       </c>
-      <c r="B7" s="2">
+      <c r="D7" s="2">
         <v>1026.3806977162899</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>14825.708523683685</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>3635.5644442851503</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>4314.8760159056446</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>295.24203538755074</v>
       </c>
-      <c r="G7" s="9">
+      <c r="I7" s="7">
         <v>2710.3999644959308</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>383.95965393544554</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1">
         <v>7185678.9302548515</v>
       </c>
-      <c r="B8" s="2">
+      <c r="D8" s="2">
         <v>2182402.0264849644</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>16230.150306777499</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>31120.277347673167</v>
       </c>
-      <c r="E8" s="9">
+      <c r="G8" s="7">
         <v>11811.496952182204</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>26826.474001927119</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>22309.239706770531</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>109340.05852138996</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1">
         <v>33.21276749053736</v>
       </c>
-      <c r="B9" s="2">
+      <c r="D9" s="2">
         <v>6.4267243397769285</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>1.0506358832704308</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>0.12449722043083217</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>12.533778400467753</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>3.9100267681895806</v>
       </c>
-      <c r="G9" s="9">
+      <c r="I9" s="7">
         <v>0.60355485027772415</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>0.61883068360350613</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1">
         <v>21.151126643428075</v>
       </c>
-      <c r="B10" s="2">
+      <c r="D10" s="2">
         <v>2.2769340909864006E-2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="E10" s="7">
         <v>21.110869615207537</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>5.0911128272381388E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>21.14701535775686</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>4.9735883448152607E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>21.132242244396945</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>3.2822980251069236E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1">
         <v>393.93553168243852</v>
       </c>
-      <c r="B11" s="2">
+      <c r="D11" s="2">
         <v>12.413778092458486</v>
       </c>
-      <c r="C11" s="9">
+      <c r="E11" s="7">
         <v>79.340882226536735</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>14.630874199597695</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>313.80561698508859</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>14.147220495425431</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>326.64778456083121</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>11.320421765624518</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1">
         <v>448.20980861071746</v>
       </c>
-      <c r="B12" s="2">
+      <c r="D12" s="2">
         <v>18.67810607382404</v>
       </c>
-      <c r="C12" s="9">
+      <c r="E12" s="7">
         <v>278.63204898080676</v>
       </c>
-      <c r="D12" s="2">
+      <c r="F12" s="2">
         <v>63.643422118064883</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>319.56955990790988</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="2">
         <v>11.692435021961124</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>326.86092839120158</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <v>9.2626254811111775</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
